--- a/Codemig/Pressure Drop/Pressur Drop/Results_Henrique/Results.xlsx
+++ b/Codemig/Pressure Drop/Pressur Drop/Results_Henrique/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Jupyter\Codemig\Pressure Drop\Pressur Drop\Results_Henrique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E78707-04BD-4A92-87A2-43003CA63BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8C08E1-1E6E-46A7-9C7E-BEEB1F32834F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{F3474251-001B-4400-BC05-FDC643286026}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{F3474251-001B-4400-BC05-FDC643286026}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha5" sheetId="5" r:id="rId3"/>
     <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -116,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -137,1871 +138,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.0469816272965886E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.88386351706036748"/>
-          <c:h val="0.8416746864975212"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CB Pressure Drop [kPa] </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$B$2:$B$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>91.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>91.54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>90.94</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>92.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>83.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.41</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>82.68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.47</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>71.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>71.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>72.77</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>61.32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>63.19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.37</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>61.79</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>61.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61.43</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62.03</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>62.36</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>62.14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>61.72</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>50.63</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>51.66</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>55.68</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>56.54</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>50.46</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>22.37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.63</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>51.36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40.68</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40.98</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>40.950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42.22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40.49</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40.69</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40.78</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>42.31</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>40.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>30.61</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.99</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>30.35</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>30.64</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>30.74</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30.25</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>31.21</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>31.05</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>30.51</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>31.42</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>20.47</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>20.09</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>20.56</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>20.13</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>11.21</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$C$2:$C$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>7.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.96</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.63</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.67</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.73</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>21.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21.18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.48</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.59</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.64</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>16.57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>16.63</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14.09</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.33</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.57</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14.12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.61</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.79</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>13.34</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.45</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.42</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.29</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.69</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9.9700000000000006</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.9600000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.67</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.62</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.23</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.56</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.18</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.98</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.93</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.14</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.26</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.04</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.8899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4.82</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.54</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.61</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F477-4236-8FC7-56483AA98350}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$D$2:$D$1048576</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048575"/>
-                <c:pt idx="0">
-                  <c:v>41.81</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>95.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>97.86</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>81.53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83.21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>83.21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>83.66</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>82.97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>72.33</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>72.53</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>72.069999999999993</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72.180000000000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>75.42</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>71.98</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62.57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>62.14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63.92</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>61.93</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61.69</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>62.06</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61.82</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>61.87</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>62.54</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51.28</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51.65</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>52.05</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>52.37</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>51.7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52.24</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>52.11</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.01</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.68</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>51.46</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41.28</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>41.34</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40.57</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>41.3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>40.58</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>41.54</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>41.94</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>40.78</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>41.07</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>33.54</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>31.16</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>30.59</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>33.32</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>32.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30.62</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>30.44</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>30.37</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>30.79</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.92</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>20.79</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>21.67</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>20.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20.12</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19.989999999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>10.25</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>12.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$E$2:$E$1048576</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048575"/>
-                <c:pt idx="0">
-                  <c:v>10.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26.47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.68</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.48</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.05</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18.73</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15.9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.86</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16.07</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15.94</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.71</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15.87</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.08</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.51</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.11</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13.18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.27</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.63</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.16</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.01</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>10.37</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.61</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10.53</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.57</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.52</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.73</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.35</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.42</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.2200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.3800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.64</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.4499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.32</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.2100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.34</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.22</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.47</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.42</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.29</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.32</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.74</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.78</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F477-4236-8FC7-56483AA98350}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1594767727"/>
-        <c:axId val="1434759391"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1594767727"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1434759391"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1434759391"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1594767727"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.4103893263342082E-2"/>
-                  <c:y val="-0.23711869349664624"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Planilha2!$O$2:$O$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>10.974129004748214</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.179051315401988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.351617471742008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.617640740381127</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.178480748486194</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.682353049008633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.520572277439864</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.860311897734285</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.086804977930562</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.406636862274606</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22.563024941457751</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.490223594251805</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.293390322176471</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.999833024693427</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.31530552925253</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.222596446096215</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>19.37324739536017</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.173717777092026</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.200681239020152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.268089893840472</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19.621311245098955</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.533994854328263</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.038211592384265</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17.086745823854894</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.660723125390469</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>16.515120430978573</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16.563654662449206</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>16.725435434017975</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.8144148583808</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16.755095242138918</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.641848702040779</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13.805292507201683</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.651600774211355</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.929324432071072</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.013255601581832</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>15.245141374163733</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14.120765011760785</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.605762888933537</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.921235393492635</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.848434046286688</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.968736312362585</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.04962669814697</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.041537659568535</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.383973626055763</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.917505734699144</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.971432658555399</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.995699774290715</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.408240741791079</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.974129004748214</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.920202080891956</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.2535156962000666</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.3559768515269557</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.1834106951869341</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.2616047347785067</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.2885681967066365</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.1564472332588061</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.4152964677688384</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.3721549286838339</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.2265522342719404</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.4719197378179079</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Planilha2!$R$2:$R$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
-                <c:pt idx="0">
-                  <c:v>116.70535797646941</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>115.80179429914334</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>112.92397021971608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>83.202910288747006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.011379109020865</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81.333436159060909</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>81.320654986720498</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78.663506006257251</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>77.880376492851255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>85.684687981850118</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84.734981529007825</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.047349605235212</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84.280649779704191</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79.182780663051446</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>77.346629549838383</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>87.18266921487951</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>92.455816690350673</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89.584192751808601</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>89.602000543836283</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88.60186030603785</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85.749946000292496</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>102.31823893013517</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97.993176441078504</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>99.069162899299826</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>100.98216143069467</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>99.058624906016263</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>99.781399608455445</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>94.525072329612527</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>93.667725037368299</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>92.422868954395639</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>93.685010251063986</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>108.84856911782721</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>110.99367216739421</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>110.80669686453054</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>101.19706835737739</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>96.43366874269617</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>106.42873819745463</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>106.91706338651564</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>103.76515786078843</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>103.09928754382891</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>126.55515244287302</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>123.89603814609521</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>130.91656218864992</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>126.06941370403594</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>125.91358746806137</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>125.00868357030222</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>117.88983428076241</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>114.09376272046465</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>115.0569772140899</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>115.3637976289168</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>149.78999823197037</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>149.55087126575651</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>163.92836085731733</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>161.71251279121608</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>152.28223588927236</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>155.16684920631099</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>141.28282004575624</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>138.494333932046</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>136.98683167509012</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>133.31561874921101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-98CE-4E83-977C-6DA953486212}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1253050735"/>
-        <c:axId val="2006517247"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1253050735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2006517247"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2006517247"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1253050735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -2431,7 +567,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3109,86 +1245,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4260,1116 +2316,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDDB4FA-9F01-4154-9F71-0173BE788DA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F99000-F04C-422E-9E44-9505701BD6EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5410,7 +2357,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6844,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4774EA-D8AE-4ECB-B3F8-75BEC4C7D1BB}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41:P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9063,19 +6010,11 @@
         <f t="shared" si="3"/>
         <v>6.5212350377910492E-3</v>
       </c>
-      <c r="P40" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6990425390056418</v>
-      </c>
       <c r="Q40" s="1">
         <v>1.04</v>
       </c>
       <c r="S40" s="1">
         <v>4.63</v>
-      </c>
-      <c r="T40" s="1">
-        <f t="shared" si="7"/>
-        <v>1261.7089736649757</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -10785,7 +7724,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10793,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD6E09C-0AC7-4FFF-985B-76EAC55A53E1}">
   <dimension ref="B3:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12022,7 +8960,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12591,4 +9529,1399 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5A31B4-2811-4330-918E-18BCBD34A0C5}">
+  <dimension ref="A1:F69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2.6514911692117456E-2</v>
+      </c>
+      <c r="B1">
+        <v>7.08</v>
+      </c>
+      <c r="C1">
+        <v>2.7238045647357018E-2</v>
+      </c>
+      <c r="D1">
+        <v>10.35</v>
+      </c>
+      <c r="E1">
+        <v>10.974129004748214</v>
+      </c>
+      <c r="F1">
+        <v>11.273423432150436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.7010030436245443E-2</v>
+      </c>
+      <c r="B2">
+        <v>7.29</v>
+      </c>
+      <c r="C2">
+        <v>2.6768985784498926E-2</v>
+      </c>
+      <c r="D2">
+        <v>10.34</v>
+      </c>
+      <c r="E2">
+        <v>11.179051315401988</v>
+      </c>
+      <c r="F2">
+        <v>11.079286506267914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.7426972536563753E-2</v>
+      </c>
+      <c r="B3">
+        <v>7.33</v>
+      </c>
+      <c r="C3">
+        <v>2.6443249768625242E-2</v>
+      </c>
+      <c r="D3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E3">
+        <v>11.351617471742008</v>
+      </c>
+      <c r="F3">
+        <v>10.944469196627272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.9479396498533746E-2</v>
+      </c>
+      <c r="B4">
+        <v>25.4</v>
+      </c>
+      <c r="C4">
+        <v>6.2345873438222121E-2</v>
+      </c>
+      <c r="D4">
+        <v>26.66</v>
+      </c>
+      <c r="E4">
+        <v>24.617640740381127</v>
+      </c>
+      <c r="F4">
+        <v>25.804033065218775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.0834458324568248E-2</v>
+      </c>
+      <c r="B5">
+        <v>26.19</v>
+      </c>
+      <c r="C5">
+        <v>6.0808399443298355E-2</v>
+      </c>
+      <c r="D5">
+        <v>26.46</v>
+      </c>
+      <c r="E5">
+        <v>25.178480748486194</v>
+      </c>
+      <c r="F5">
+        <v>25.167695363714945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5.963574978615311E-2</v>
+      </c>
+      <c r="B6">
+        <v>24.96</v>
+      </c>
+      <c r="C6">
+        <v>6.1121106018537083E-2</v>
+      </c>
+      <c r="D6">
+        <v>26.39</v>
+      </c>
+      <c r="E6">
+        <v>24.682353049008633</v>
+      </c>
+      <c r="F6">
+        <v>25.29711998096996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5.9244866567104697E-2</v>
+      </c>
+      <c r="B7">
+        <v>24.63</v>
+      </c>
+      <c r="C7">
+        <v>6.1922416617586337E-2</v>
+      </c>
+      <c r="D7">
+        <v>26.25</v>
+      </c>
+      <c r="E7">
+        <v>24.520572277439864</v>
+      </c>
+      <c r="F7">
+        <v>25.628770562685936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6.0065721327106365E-2</v>
+      </c>
+      <c r="B8">
+        <v>24.49</v>
+      </c>
+      <c r="C8">
+        <v>6.3753053026796416E-2</v>
+      </c>
+      <c r="D8">
+        <v>26.47</v>
+      </c>
+      <c r="E8">
+        <v>24.860311897734285</v>
+      </c>
+      <c r="F8">
+        <v>26.386443842866342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6.0612957833774156E-2</v>
+      </c>
+      <c r="B9">
+        <v>24.69</v>
+      </c>
+      <c r="C9">
+        <v>6.1896357736316444E-2</v>
+      </c>
+      <c r="D9">
+        <v>26.33</v>
+      </c>
+      <c r="E9">
+        <v>25.086804977930562</v>
+      </c>
+      <c r="F9">
+        <v>25.617985177914687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5.4137325838205408E-2</v>
+      </c>
+      <c r="B10">
+        <v>21.67</v>
+      </c>
+      <c r="C10">
+        <v>5.3114514748362054E-2</v>
+      </c>
+      <c r="D10">
+        <v>22.4</v>
+      </c>
+      <c r="E10">
+        <v>22.406636862274606</v>
+      </c>
+      <c r="F10">
+        <v>21.98331051000299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5.4515179616618885E-2</v>
+      </c>
+      <c r="B11">
+        <v>21.73</v>
+      </c>
+      <c r="C11">
+        <v>5.4208987761697622E-2</v>
+      </c>
+      <c r="D11">
+        <v>22.31</v>
+      </c>
+      <c r="E11">
+        <v>22.563024941457751</v>
+      </c>
+      <c r="F11">
+        <v>22.436296670395546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.4339282168047093E-2</v>
+      </c>
+      <c r="B12">
+        <v>21.16</v>
+      </c>
+      <c r="C12">
+        <v>5.4267620244554886E-2</v>
+      </c>
+      <c r="D12">
+        <v>22.82</v>
+      </c>
+      <c r="E12">
+        <v>22.490223594251805</v>
+      </c>
+      <c r="F12">
+        <v>22.460563786130862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.386370758487153E-2</v>
+      </c>
+      <c r="B13">
+        <v>21.1</v>
+      </c>
+      <c r="C13">
+        <v>5.4208987761697622E-2</v>
+      </c>
+      <c r="D13">
+        <v>22.68</v>
+      </c>
+      <c r="E13">
+        <v>22.293390322176471</v>
+      </c>
+      <c r="F13">
+        <v>22.436296670395546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.5570564308049596E-2</v>
+      </c>
+      <c r="B14">
+        <v>21.1</v>
+      </c>
+      <c r="C14">
+        <v>5.4502150175983935E-2</v>
+      </c>
+      <c r="D14">
+        <v>22.56</v>
+      </c>
+      <c r="E14">
+        <v>22.999833024693427</v>
+      </c>
+      <c r="F14">
+        <v>22.557632249072128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.6332786585194007E-2</v>
+      </c>
+      <c r="B15">
+        <v>21.18</v>
+      </c>
+      <c r="C15">
+        <v>5.4052634474078258E-2</v>
+      </c>
+      <c r="D15">
+        <v>22.48</v>
+      </c>
+      <c r="E15">
+        <v>23.31530552925253</v>
+      </c>
+      <c r="F15">
+        <v>22.37158436176804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4.8860402381051812E-2</v>
+      </c>
+      <c r="B16">
+        <v>17.96</v>
+      </c>
+      <c r="C16">
+        <v>4.7120972056286368E-2</v>
+      </c>
+      <c r="D16">
+        <v>18.96</v>
+      </c>
+      <c r="E16">
+        <v>20.222596446096215</v>
+      </c>
+      <c r="F16">
+        <v>19.502672012615189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.6808265481047634E-2</v>
+      </c>
+      <c r="B17">
+        <v>17.48</v>
+      </c>
+      <c r="C17">
+        <v>4.7251266462635846E-2</v>
+      </c>
+      <c r="D17">
+        <v>19.04</v>
+      </c>
+      <c r="E17">
+        <v>19.37324739536017</v>
+      </c>
+      <c r="F17">
+        <v>19.556598936471449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.63261761775546E-2</v>
+      </c>
+      <c r="B18">
+        <v>16.59</v>
+      </c>
+      <c r="C18">
+        <v>4.6951589328032055E-2</v>
+      </c>
+      <c r="D18">
+        <v>19.05</v>
+      </c>
+      <c r="E18">
+        <v>19.173717777092026</v>
+      </c>
+      <c r="F18">
+        <v>19.432567011602057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.6391323380729335E-2</v>
+      </c>
+      <c r="B19">
+        <v>16.64</v>
+      </c>
+      <c r="C19">
+        <v>4.7023251251524276E-2</v>
+      </c>
+      <c r="D19">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E19">
+        <v>19.200681239020152</v>
+      </c>
+      <c r="F19">
+        <v>19.462226819723004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4.655419138866617E-2</v>
+      </c>
+      <c r="B20">
+        <v>16.57</v>
+      </c>
+      <c r="C20">
+        <v>4.9134020634385711E-2</v>
+      </c>
+      <c r="D20">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="E20">
+        <v>19.268089893840472</v>
+      </c>
+      <c r="F20">
+        <v>20.335842986194358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.740761975025521E-2</v>
+      </c>
+      <c r="B21">
+        <v>16.63</v>
+      </c>
+      <c r="C21">
+        <v>4.6892956845174798E-2</v>
+      </c>
+      <c r="D21">
+        <v>18.73</v>
+      </c>
+      <c r="E21">
+        <v>19.621311245098955</v>
+      </c>
+      <c r="F21">
+        <v>19.408299895866744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.9948264986747965E-2</v>
+      </c>
+      <c r="B22">
+        <v>14.09</v>
+      </c>
+      <c r="C22">
+        <v>4.1068796881353412E-2</v>
+      </c>
+      <c r="D22">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="E22">
+        <v>16.533994854328263</v>
+      </c>
+      <c r="F22">
+        <v>16.997766399492072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.1166517686115525E-2</v>
+      </c>
+      <c r="B23">
+        <v>14.33</v>
+      </c>
+      <c r="C23">
+        <v>4.0762605026432162E-2</v>
+      </c>
+      <c r="D23">
+        <v>16.2</v>
+      </c>
+      <c r="E23">
+        <v>17.038211592384265</v>
+      </c>
+      <c r="F23">
+        <v>16.87103812842987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4.1283782651830046E-2</v>
+      </c>
+      <c r="B24">
+        <v>14.57</v>
+      </c>
+      <c r="C24">
+        <v>4.0482472052780799E-2</v>
+      </c>
+      <c r="D24">
+        <v>16.18</v>
+      </c>
+      <c r="E24">
+        <v>17.086745823854894</v>
+      </c>
+      <c r="F24">
+        <v>16.755095242138918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.0254456841669221E-2</v>
+      </c>
+      <c r="B25">
+        <v>14.12</v>
+      </c>
+      <c r="C25">
+        <v>4.1642092269291095E-2</v>
+      </c>
+      <c r="D25">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="E25">
+        <v>16.660723125390469</v>
+      </c>
+      <c r="F25">
+        <v>17.235044864459603</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3.9902661944525644E-2</v>
+      </c>
+      <c r="B26">
+        <v>13.61</v>
+      </c>
+      <c r="C26">
+        <v>4.0345662926113857E-2</v>
+      </c>
+      <c r="D26">
+        <v>15.9</v>
+      </c>
+      <c r="E26">
+        <v>16.515120430978573</v>
+      </c>
+      <c r="F26">
+        <v>16.698471972089852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4.0019926910240172E-2</v>
+      </c>
+      <c r="B27">
+        <v>13.79</v>
+      </c>
+      <c r="C27">
+        <v>4.0189309638494486E-2</v>
+      </c>
+      <c r="D27">
+        <v>15.86</v>
+      </c>
+      <c r="E27">
+        <v>16.563654662449206</v>
+      </c>
+      <c r="F27">
+        <v>16.633759663462339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4.0410810129288585E-2</v>
+      </c>
+      <c r="B28">
+        <v>13.32</v>
+      </c>
+      <c r="C28">
+        <v>4.0430354290241013E-2</v>
+      </c>
+      <c r="D28">
+        <v>16.07</v>
+      </c>
+      <c r="E28">
+        <v>16.725435434017975</v>
+      </c>
+      <c r="F28">
+        <v>16.733524472596415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4.0625795899765213E-2</v>
+      </c>
+      <c r="B29">
+        <v>13.34</v>
+      </c>
+      <c r="C29">
+        <v>4.0274001002621636E-2</v>
+      </c>
+      <c r="D29">
+        <v>15.94</v>
+      </c>
+      <c r="E29">
+        <v>16.8144148583808</v>
+      </c>
+      <c r="F29">
+        <v>16.668812163968905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4.0482472052780799E-2</v>
+      </c>
+      <c r="B30">
+        <v>13.07</v>
+      </c>
+      <c r="C30">
+        <v>4.0306574604209007E-2</v>
+      </c>
+      <c r="D30">
+        <v>15.71</v>
+      </c>
+      <c r="E30">
+        <v>16.755095242138918</v>
+      </c>
+      <c r="F30">
+        <v>16.682293894932968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.0208853799446907E-2</v>
+      </c>
+      <c r="B31">
+        <v>13.07</v>
+      </c>
+      <c r="C31">
+        <v>4.0743060865479748E-2</v>
+      </c>
+      <c r="D31">
+        <v>15.87</v>
+      </c>
+      <c r="E31">
+        <v>16.641848702040779</v>
+      </c>
+      <c r="F31">
+        <v>16.862949089851433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3.3355368025464703E-2</v>
+      </c>
+      <c r="B32">
+        <v>10.45</v>
+      </c>
+      <c r="C32">
+        <v>3.3407485788004496E-2</v>
+      </c>
+      <c r="D32">
+        <v>13.14</v>
+      </c>
+      <c r="E32">
+        <v>13.805292507201683</v>
+      </c>
+      <c r="F32">
+        <v>13.826863276744184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3.2984028967368718E-2</v>
+      </c>
+      <c r="B33">
+        <v>10.42</v>
+      </c>
+      <c r="C33">
+        <v>3.3648530439751016E-2</v>
+      </c>
+      <c r="D33">
+        <v>13.08</v>
+      </c>
+      <c r="E33">
+        <v>13.651600774211355</v>
+      </c>
+      <c r="F33">
+        <v>13.926628085878258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3.3655045160068488E-2</v>
+      </c>
+      <c r="B34">
+        <v>10.83</v>
+      </c>
+      <c r="C34">
+        <v>3.3909119252449958E-2</v>
+      </c>
+      <c r="D34">
+        <v>13.3</v>
+      </c>
+      <c r="E34">
+        <v>13.929324432071072</v>
+      </c>
+      <c r="F34">
+        <v>14.03448193359077</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.6273962727692871E-2</v>
+      </c>
+      <c r="B35">
+        <v>11.49</v>
+      </c>
+      <c r="C35">
+        <v>3.4117590302609115E-2</v>
+      </c>
+      <c r="D35">
+        <v>13.51</v>
+      </c>
+      <c r="E35">
+        <v>15.013255601581832</v>
+      </c>
+      <c r="F35">
+        <v>14.120765011760785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3.6834228674995598E-2</v>
+      </c>
+      <c r="B36">
+        <v>11.29</v>
+      </c>
+      <c r="C36">
+        <v>3.3681104041338387E-2</v>
+      </c>
+      <c r="D36">
+        <v>13.11</v>
+      </c>
+      <c r="E36">
+        <v>15.245141374163733</v>
+      </c>
+      <c r="F36">
+        <v>13.940109816842325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.4117590302609115E-2</v>
+      </c>
+      <c r="B37">
+        <v>10.69</v>
+      </c>
+      <c r="C37">
+        <v>3.4032898938481958E-2</v>
+      </c>
+      <c r="D37">
+        <v>13.18</v>
+      </c>
+      <c r="E37">
+        <v>14.120765011760785</v>
+      </c>
+      <c r="F37">
+        <v>14.085712511254217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3.2873278721971669E-2</v>
+      </c>
+      <c r="B38">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C38">
+        <v>3.3948207574354801E-2</v>
+      </c>
+      <c r="D38">
+        <v>13.27</v>
+      </c>
+      <c r="E38">
+        <v>13.605762888933537</v>
+      </c>
+      <c r="F38">
+        <v>14.05066001074765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.3635500999116073E-2</v>
+      </c>
+      <c r="B39">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C39">
+        <v>3.3668074600703438E-2</v>
+      </c>
+      <c r="D39">
+        <v>13.16</v>
+      </c>
+      <c r="E39">
+        <v>13.921235393492635</v>
+      </c>
+      <c r="F39">
+        <v>13.934717124456697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.3459603550544288E-2</v>
+      </c>
+      <c r="B40">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C40">
+        <v>3.3524750753719017E-2</v>
+      </c>
+      <c r="D40">
+        <v>13.01</v>
+      </c>
+      <c r="E40">
+        <v>13.848434046286688</v>
+      </c>
+      <c r="F40">
+        <v>13.875397508214816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.6501882251482502E-2</v>
+      </c>
+      <c r="B41">
+        <v>7.67</v>
+      </c>
+      <c r="C41">
+        <v>2.6873221309578494E-2</v>
+      </c>
+      <c r="D41">
+        <v>10.41</v>
+      </c>
+      <c r="E41">
+        <v>10.968736312362585</v>
+      </c>
+      <c r="F41">
+        <v>11.122428045352915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.6697323861006709E-2</v>
+      </c>
+      <c r="B42">
+        <v>7.62</v>
+      </c>
+      <c r="C42">
+        <v>2.6892765470530919E-2</v>
+      </c>
+      <c r="D42">
+        <v>10.37</v>
+      </c>
+      <c r="E42">
+        <v>11.04962669814697</v>
+      </c>
+      <c r="F42">
+        <v>11.130517083931357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.6677779700054294E-2</v>
+      </c>
+      <c r="B43">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="C43">
+        <v>2.6931853792435768E-2</v>
+      </c>
+      <c r="D43">
+        <v>10.61</v>
+      </c>
+      <c r="E43">
+        <v>11.041537659568535</v>
+      </c>
+      <c r="F43">
+        <v>11.146695161088237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.7505149180373438E-2</v>
+      </c>
+      <c r="B44">
+        <v>8.23</v>
+      </c>
+      <c r="C44">
+        <v>2.6430220327990295E-2</v>
+      </c>
+      <c r="D44">
+        <v>10.53</v>
+      </c>
+      <c r="E44">
+        <v>11.383973626055763</v>
+      </c>
+      <c r="F44">
+        <v>10.939076504241646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.6378102565450506E-2</v>
+      </c>
+      <c r="B45">
+        <v>7.56</v>
+      </c>
+      <c r="C45">
+        <v>2.6905794911165869E-2</v>
+      </c>
+      <c r="D45">
+        <v>10.57</v>
+      </c>
+      <c r="E45">
+        <v>10.917505734699144</v>
+      </c>
+      <c r="F45">
+        <v>11.135909776316984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.6508396971799977E-2</v>
+      </c>
+      <c r="B46">
+        <v>7.58</v>
+      </c>
+      <c r="C46">
+        <v>2.6436735048307767E-2</v>
+      </c>
+      <c r="D46">
+        <v>10.52</v>
+      </c>
+      <c r="E46">
+        <v>10.971432658555399</v>
+      </c>
+      <c r="F46">
+        <v>10.941772850434457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2.6567029454657241E-2</v>
+      </c>
+      <c r="B47">
+        <v>7.18</v>
+      </c>
+      <c r="C47">
+        <v>2.7062148198785232E-2</v>
+      </c>
+      <c r="D47">
+        <v>10.55</v>
+      </c>
+      <c r="E47">
+        <v>10.995699774290715</v>
+      </c>
+      <c r="F47">
+        <v>11.200622084944492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.7563781663230699E-2</v>
+      </c>
+      <c r="B48">
+        <v>7.48</v>
+      </c>
+      <c r="C48">
+        <v>2.7322737011484171E-2</v>
+      </c>
+      <c r="D48">
+        <v>10.73</v>
+      </c>
+      <c r="E48">
+        <v>11.408240741791079</v>
+      </c>
+      <c r="F48">
+        <v>11.308475932657002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2.6514911692117456E-2</v>
+      </c>
+      <c r="B49">
+        <v>6.98</v>
+      </c>
+      <c r="C49">
+        <v>2.6567029454657245E-2</v>
+      </c>
+      <c r="D49">
+        <v>10.35</v>
+      </c>
+      <c r="E49">
+        <v>10.974129004748214</v>
+      </c>
+      <c r="F49">
+        <v>10.995699774290717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.6384617285767981E-2</v>
+      </c>
+      <c r="B50">
+        <v>6.93</v>
+      </c>
+      <c r="C50">
+        <v>2.6755956343863973E-2</v>
+      </c>
+      <c r="D50">
+        <v>10.42</v>
+      </c>
+      <c r="E50">
+        <v>10.920202080891956</v>
+      </c>
+      <c r="F50">
+        <v>11.073893813882286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.9941558891786611E-2</v>
+      </c>
+      <c r="B51">
+        <v>5.14</v>
+      </c>
+      <c r="C51">
+        <v>2.1850371944806369E-2</v>
+      </c>
+      <c r="D51">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E51">
+        <v>8.2535156962000666</v>
+      </c>
+      <c r="F51">
+        <v>9.0435451306942252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2.018911826385061E-2</v>
+      </c>
+      <c r="B52">
+        <v>5.26</v>
+      </c>
+      <c r="C52">
+        <v>2.029986850924766E-2</v>
+      </c>
+      <c r="D52">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E52">
+        <v>8.3559768515269557</v>
+      </c>
+      <c r="F52">
+        <v>8.4018147368047735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.9772176163532301E-2</v>
+      </c>
+      <c r="B53">
+        <v>5.53</v>
+      </c>
+      <c r="C53">
+        <v>1.9928529451151665E-2</v>
+      </c>
+      <c r="D53">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E53">
+        <v>8.1834106951869341</v>
+      </c>
+      <c r="F53">
+        <v>8.2481230038144417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.9961103052739036E-2</v>
+      </c>
+      <c r="B54">
+        <v>5.56</v>
+      </c>
+      <c r="C54">
+        <v>2.1707048097821952E-2</v>
+      </c>
+      <c r="D54">
+        <v>8.64</v>
+      </c>
+      <c r="E54">
+        <v>8.2616047347785067</v>
+      </c>
+      <c r="F54">
+        <v>8.9842255144523442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2.0026250255913772E-2</v>
+      </c>
+      <c r="B55">
+        <v>5.27</v>
+      </c>
+      <c r="C55">
+        <v>2.1439944564805535E-2</v>
+      </c>
+      <c r="D55">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E55">
+        <v>8.2885681967066365</v>
+      </c>
+      <c r="F55">
+        <v>8.8736753205470187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.9707028960357566E-2</v>
+      </c>
+      <c r="B56">
+        <v>5.2</v>
+      </c>
+      <c r="C56">
+        <v>1.994807361210409E-2</v>
+      </c>
+      <c r="D56">
+        <v>8.23</v>
+      </c>
+      <c r="E56">
+        <v>8.1564472332588061</v>
+      </c>
+      <c r="F56">
+        <v>8.2562120423928818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2.0332442110835028E-2</v>
+      </c>
+      <c r="B57">
+        <v>5.04</v>
+      </c>
+      <c r="C57">
+        <v>1.9830808646389569E-2</v>
+      </c>
+      <c r="D57">
+        <v>8.4</v>
+      </c>
+      <c r="E57">
+        <v>8.4152964677688384</v>
+      </c>
+      <c r="F57">
+        <v>8.2076778109222523</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2.0228206585755457E-2</v>
+      </c>
+      <c r="B58">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C58">
+        <v>1.9785205604167248E-2</v>
+      </c>
+      <c r="D58">
+        <v>8.36</v>
+      </c>
+      <c r="E58">
+        <v>8.3721549286838339</v>
+      </c>
+      <c r="F58">
+        <v>8.1888033875725608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.9876411688611879E-2</v>
+      </c>
+      <c r="B59">
+        <v>4.67</v>
+      </c>
+      <c r="C59">
+        <v>2.0058823857501139E-2</v>
+      </c>
+      <c r="D59">
+        <v>8.32</v>
+      </c>
+      <c r="E59">
+        <v>8.2265522342719404</v>
+      </c>
+      <c r="F59">
+        <v>8.3020499276706996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.0469251237501974E-2</v>
+      </c>
+      <c r="B60">
+        <v>4.82</v>
+      </c>
+      <c r="C60">
+        <v>1.9492043189880938E-2</v>
+      </c>
+      <c r="D60">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E60">
+        <v>8.4719197378179079</v>
+      </c>
+      <c r="F60">
+        <v>8.0674678088959837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.3420323853995565E-2</v>
+      </c>
+      <c r="B61">
+        <v>2.9</v>
+      </c>
+      <c r="C61">
+        <v>1.3544103540027563E-2</v>
+      </c>
+      <c r="D61">
+        <v>6.34</v>
+      </c>
+      <c r="E61">
+        <v>5.5544731571944261</v>
+      </c>
+      <c r="F61">
+        <v>5.6057037348578698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.3335632489868408E-2</v>
+      </c>
+      <c r="B62">
+        <v>2.96</v>
+      </c>
+      <c r="C62">
+        <v>1.3485471057170302E-2</v>
+      </c>
+      <c r="D62">
+        <v>6.22</v>
+      </c>
+      <c r="E62">
+        <v>5.5194206566878599</v>
+      </c>
+      <c r="F62">
+        <v>5.581436619122556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.3088073117804412E-2</v>
+      </c>
+      <c r="B63">
+        <v>3.54</v>
+      </c>
+      <c r="C63">
+        <v>1.4117398927965239E-2</v>
+      </c>
+      <c r="D63">
+        <v>6.47</v>
+      </c>
+      <c r="E63">
+        <v>5.4169595013609726</v>
+      </c>
+      <c r="F63">
+        <v>5.8429821998253999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.339426497272567E-2</v>
+      </c>
+      <c r="B64">
+        <v>3.61</v>
+      </c>
+      <c r="C64">
+        <v>1.3355176650820831E-2</v>
+      </c>
+      <c r="D64">
+        <v>6.42</v>
+      </c>
+      <c r="E64">
+        <v>5.5436877724231763</v>
+      </c>
+      <c r="F64">
+        <v>5.527509695266299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.34854710571703E-2</v>
+      </c>
+      <c r="B65">
+        <v>2.73</v>
+      </c>
+      <c r="C65">
+        <v>1.3107617278756834E-2</v>
+      </c>
+      <c r="D65">
+        <v>6.29</v>
+      </c>
+      <c r="E65">
+        <v>5.5814366191225542</v>
+      </c>
+      <c r="F65">
+        <v>5.4250485399394108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.3114131999074309E-2</v>
+      </c>
+      <c r="B66">
+        <v>2.67</v>
+      </c>
+      <c r="C66">
+        <v>1.3022925914629675E-2</v>
+      </c>
+      <c r="D66">
+        <v>6.32</v>
+      </c>
+      <c r="E66">
+        <v>5.4277448861322242</v>
+      </c>
+      <c r="F66">
+        <v>5.3899960394328446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6.6189558425531524E-3</v>
+      </c>
+      <c r="B67">
+        <v>0.95</v>
+      </c>
+      <c r="C67">
+        <v>6.6775883254104156E-3</v>
+      </c>
+      <c r="D67">
+        <v>4.74</v>
+      </c>
+      <c r="E67">
+        <v>2.7394877318978335</v>
+      </c>
+      <c r="F67">
+        <v>2.7637548476331495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7.3030014758878785E-3</v>
+      </c>
+      <c r="B68">
+        <v>1.04</v>
+      </c>
+      <c r="C68">
+        <v>6.5668380800133642E-3</v>
+      </c>
+      <c r="D68">
+        <v>4.78</v>
+      </c>
+      <c r="E68">
+        <v>3.0226040821431805</v>
+      </c>
+      <c r="F68">
+        <v>2.7179169623553316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6.3909406314415782E-3</v>
+      </c>
+      <c r="B69">
+        <v>0.99</v>
+      </c>
+      <c r="C69">
+        <v>8.0717384733497606E-3</v>
+      </c>
+      <c r="D69">
+        <v>4.7</v>
+      </c>
+      <c r="E69">
+        <v>2.6451156151493853</v>
+      </c>
+      <c r="F69">
+        <v>3.3407729328950952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>